--- a/data/trans_camb/P8_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P8_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,89</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 3,96</t>
+          <t>-4,72; 10,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 5,1</t>
+          <t>-3,82; 10,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 4,13</t>
+          <t>-6,26; 7,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 4,3</t>
+          <t>-6,37; 9,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 6,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 5,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 9,03</t>
+          <t>-7,92; 9,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 15,76</t>
+          <t>-4,37; 11,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 3,64</t>
+          <t>-3,26; 11,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,41</t>
+          <t>-2,63; 15,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 4,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 9,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 8,0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 9,03</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 8,01</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 11,08</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,7%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>51,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,32%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,94%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-2,33%</t>
+          <t>47,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>16,79%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>37,67%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>30,74%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>43,8%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 53,05</t>
+          <t>-44,64; 267,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,51; 72,13</t>
+          <t>-33,75; 335,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,88; 51,8</t>
+          <t>-48,93; 182,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,26; 62,5</t>
+          <t>-58,9; 245,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,58; 62,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 53,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 81,61</t>
+          <t>-47,35; 123,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 142,76</t>
+          <t>-24,33; 151,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 33,39</t>
+          <t>-19,74; 139,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 33,44</t>
+          <t>-17,59; 178,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 46,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 87,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-33,64; 109,97</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-12,51; 132,99</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; 112,08</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-14,72; 145,86</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,86</t>
+          <t>-2,58; 5,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,96</t>
+          <t>-2,12; 5,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 5,03</t>
+          <t>-1,4; 5,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,8</t>
+          <t>-1,31; 6,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 3,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,91</t>
+          <t>-5,95; 2,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,41</t>
+          <t>-8,3; 1,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,3</t>
+          <t>-8,34; 0,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,74</t>
+          <t>-6,26; 3,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 2,77</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 2,59</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 2,37</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 3,63</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>36,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-21,67%</t>
+          <t>-16,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,8%</t>
+          <t>-26,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>-29,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-1,47%</t>
+          <t>-9,51%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-1,07%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-2,42%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-2,81%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,81; 60,33</t>
+          <t>-32,68; 126,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 86,84</t>
+          <t>-28,61; 139,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 109,61</t>
+          <t>-20,6; 141,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 106,52</t>
+          <t>-20,45; 156,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 70,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,34; 20,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,38; 17,91</t>
+          <t>-53,84; 51,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,89; 43,84</t>
+          <t>-61,93; 24,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 44,05</t>
+          <t>-65,98; 16,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 32,43</t>
+          <t>-54,38; 69,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 38,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 50,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-36,78; 51,37</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-35,82; 48,04</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-36,25; 44,31</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-28,86; 66,21</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,15</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 5,2</t>
+          <t>-4,74; 8,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 3,65</t>
+          <t>-6,07; 6,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,47</t>
+          <t>-5,77; 6,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 8,95</t>
+          <t>-5,15; 7,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 2,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 6,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 6,08</t>
+          <t>-2,16; 3,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 8,47</t>
+          <t>0,63; 7,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 3,03</t>
+          <t>1,32; 7,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,0</t>
+          <t>2,57; 10,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 7,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 4,94</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 5,82</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 6,17</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 7,84</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>53,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>65,09%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>65,61%</t>
+          <t>129,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>147,86%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>195,97%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>27,67%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>48,13%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>60,42%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>82,12%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 76,79</t>
+          <t>-44,71; 180,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,81; 56,76</t>
+          <t>-51,63; 141,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 66,99</t>
+          <t>-46,28; 128,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 137,85</t>
+          <t>-44,28; 163,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,07; 95,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 183,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 184,78</t>
+          <t>-52,69; 240,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 250,41</t>
+          <t>4,58; 438,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 57,14</t>
+          <t>19,16; 474,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 78,45</t>
+          <t>51,27; 637,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 84,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 136,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-34,84; 139,94</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-15,94; 157,15</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 183,59</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5,99; 215,91</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,49</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,59</t>
+          <t>-4,93; 0,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,0</t>
+          <t>-4,12; 2,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 4,11</t>
+          <t>-2,31; 5,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,32</t>
+          <t>-1,06; 5,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,38</t>
+          <t>-5,46; 1,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,84</t>
+          <t>-2,04; 6,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 2,53</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 1,26</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 4,47</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>-23,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>50,47%</t>
+          <t>-27,84%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-18,4%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>17,77%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 40,41</t>
+          <t>-53,66; 11,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 47,28</t>
+          <t>-43,81; 44,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 50,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 61,61</t>
+          <t>-28,44; 84,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 37,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 32,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 49,53</t>
+          <t>-12,31; 75,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,21; 104,62</t>
+          <t>-59,22; 17,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 25,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 27,25</t>
+          <t>-23,78; 88,21</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 36,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,32; 66,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-24,0; 35,39</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-42,39; 19,94</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-16,79; 60,29</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 2,45</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 3,25</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 3,2</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 3,93</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 2,44</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 2,19</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 3,42</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 5,46</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 1,82</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 2,09</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 2,74</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 3,93</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14,83%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>19,34%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>36,02%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>8,06%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>28,09%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-23,37; 39,43</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-13,77; 51,76</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-12,91; 51,69</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-11,4; 61,3</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-19,43; 36,24</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-19,73; 32,82</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-9,02; 51,72</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 79,96</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-14,32; 26,53</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 30,84</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 39,75</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>4,41; 56,52</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
